--- a/投资.xlsx
+++ b/投资.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roy/Documents/Investment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roy/Documents/Investment/Investment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85E5961-9FB3-2346-ADCF-F637554678F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C498EE-0360-C84B-9445-57E169B8EAFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16620" activeTab="2" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16620" activeTab="1" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
   </bookViews>
   <sheets>
     <sheet name="基金" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>东方红信用债</t>
   </si>
@@ -122,13 +122,26 @@
   </si>
   <si>
     <t>ratio</t>
+  </si>
+  <si>
+    <t>卖出时间</t>
+  </si>
+  <si>
+    <t>景顺新兴成长</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,19 +167,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,18 +494,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F949CF11-67A3-604B-899F-947452500CA0}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="5" max="6" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -499,38 +516,72 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
         <v>38000</v>
       </c>
+      <c r="C3">
+        <v>42329.81</v>
+      </c>
       <c r="D3">
-        <v>253.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <f>C3-B3</f>
+        <v>4329.8099999999977</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43563</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43895</v>
+      </c>
+      <c r="G3" s="3">
+        <f>D3/B3*252/(F3-E3)</f>
+        <v>8.648637603043749E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
         <v>30000</v>
       </c>
+      <c r="C4">
+        <v>37203.81</v>
+      </c>
       <c r="D4">
-        <v>3923.93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <f>C4-B4+1265.27+860.38</f>
+        <v>9329.4599999999973</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43563</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43895</v>
+      </c>
+      <c r="G4" s="3">
+        <f>D4/B4*252/(F4-E4)</f>
+        <v>0.23604657831325296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -540,8 +591,9 @@
       <c r="D5">
         <v>308.39999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -551,8 +603,9 @@
       <c r="D6">
         <v>-158.72999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -562,16 +615,56 @@
       <c r="D7">
         <v>15.67</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
         <v>60000</v>
       </c>
+      <c r="C8">
+        <v>60253.62</v>
+      </c>
       <c r="D8">
-        <v>-1772.22</v>
+        <f>C8-B8</f>
+        <v>253.62000000000262</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43724</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43833</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" ref="G8:G9" si="0">D8/B8*252/(F8-E8)</f>
+        <v>9.7725137614679894E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>60000</v>
+      </c>
+      <c r="C9">
+        <v>65762</v>
+      </c>
+      <c r="D9">
+        <f>C9-B9</f>
+        <v>5762</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43563</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43715</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15921315789473683</v>
       </c>
     </row>
   </sheetData>
@@ -583,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98032447-137F-5544-9F5B-CB15EE9F4197}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,7 +728,7 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">NOW()</f>
-        <v>43895.702476967592</v>
+        <v>43912.902092476848</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -689,11 +782,11 @@
         <v>43701</v>
       </c>
       <c r="E5">
-        <v>960.54</v>
+        <v>1076.5999999999999</v>
       </c>
       <c r="F5">
         <f ca="1">E5/B5 * 360 /($I$2-C5) * 100</f>
-        <v>3.552028771134303</v>
+        <v>3.6580667559226212</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -711,7 +804,7 @@
       </c>
       <c r="F6">
         <f ca="1">E6/B6 * 360 /($I$2-C6) * 100</f>
-        <v>4.996412785017629</v>
+        <v>4.5316458498430201</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -725,11 +818,11 @@
         <v>43839</v>
       </c>
       <c r="E9">
-        <v>193.51</v>
+        <v>360.15</v>
       </c>
       <c r="F9">
         <f ca="1">E9/B9 * 360 /($I$2-C9) * 100</f>
-        <v>2.1938950883113257</v>
+        <v>3.132861225445422</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -741,6 +834,16 @@
       </c>
       <c r="C10" s="2">
         <v>43840</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43903</v>
+      </c>
+      <c r="E10">
+        <v>336.6</v>
+      </c>
+      <c r="F10">
+        <f>E10/B10 * 360 /(D10-C10) * 100</f>
+        <v>3.846857142857143</v>
       </c>
     </row>
   </sheetData>
@@ -752,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE5F9FB-0D72-8B47-BF50-6DB021D0CB0D}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,24 +865,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
       <c r="S1" t="s">
         <v>27</v>
       </c>

--- a/投资.xlsx
+++ b/投资.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roy/Documents/Investment/Investment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C498EE-0360-C84B-9445-57E169B8EAFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F269067-E0B7-7E47-B2EB-BDDF1C750F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16620" activeTab="1" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>东方红信用债</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>景顺新兴成长</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,10 +677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98032447-137F-5544-9F5B-CB15EE9F4197}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +731,7 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">NOW()</f>
-        <v>43912.902092476848</v>
+        <v>43930.486032407411</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -779,14 +782,14 @@
         <v>50000</v>
       </c>
       <c r="C5" s="2">
-        <v>43701</v>
+        <v>43704</v>
       </c>
       <c r="E5">
-        <v>1076.5999999999999</v>
+        <v>1104.6199999999999</v>
       </c>
       <c r="F5">
         <f ca="1">E5/B5 * 360 /($I$2-C5) * 100</f>
-        <v>3.6580667559226212</v>
+        <v>3.5115913840079118</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -800,11 +803,11 @@
         <v>43728</v>
       </c>
       <c r="E6">
-        <v>4655.0600000000004</v>
+        <v>2737.18</v>
       </c>
       <c r="F6">
         <f ca="1">E6/B6 * 360 /($I$2-C6) * 100</f>
-        <v>4.5316458498430201</v>
+        <v>2.4332167218758154</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -822,7 +825,7 @@
       </c>
       <c r="F9">
         <f ca="1">E9/B9 * 360 /($I$2-C9) * 100</f>
-        <v>3.132861225445422</v>
+        <v>2.5307141856251896</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -844,6 +847,53 @@
       <c r="F10">
         <f>E10/B10 * 360 /(D10-C10) * 100</f>
         <v>3.846857142857143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>100000</v>
+      </c>
+      <c r="C11" s="2">
+        <f>D11-63</f>
+        <v>43853</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43916</v>
+      </c>
+      <c r="E11">
+        <v>673.2</v>
+      </c>
+      <c r="F11">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>20000</v>
+      </c>
+      <c r="C12" s="2">
+        <f>D12-91</f>
+        <v>43833</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43924</v>
+      </c>
+      <c r="E12">
+        <v>194.46</v>
+      </c>
+      <c r="F12">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/投资.xlsx
+++ b/投资.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roy/Documents/Investment/Investment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F269067-E0B7-7E47-B2EB-BDDF1C750F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F14F873-F612-6B47-B0B3-9C78564303C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16620" activeTab="1" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" activeTab="2" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
   </bookViews>
   <sheets>
     <sheet name="基金" sheetId="1" r:id="rId1"/>
     <sheet name="理财" sheetId="2" r:id="rId2"/>
-    <sheet name="整体配比模拟" sheetId="3" r:id="rId3"/>
+    <sheet name="总结" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>东方红信用债</t>
   </si>
@@ -97,40 +97,79 @@
     <t>青葵半年2号A</t>
   </si>
   <si>
-    <t>Fund</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>gain</t>
-  </si>
-  <si>
-    <t>Wealth Management</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
     <t>卖出时间</t>
   </si>
   <si>
     <t>景顺新兴成长</t>
   </si>
   <si>
-    <t>x</t>
+    <t>招行</t>
+  </si>
+  <si>
+    <t>天天</t>
+  </si>
+  <si>
+    <t>度小满</t>
+  </si>
+  <si>
+    <t>聚益生金91天A款</t>
+  </si>
+  <si>
+    <t>聚益生金63天B款</t>
+  </si>
+  <si>
+    <t>天天金稳健型</t>
+  </si>
+  <si>
+    <t>聚益生金90天B款</t>
+  </si>
+  <si>
+    <t>总共</t>
+  </si>
+  <si>
+    <t>景顺长城新兴成长</t>
+  </si>
+  <si>
+    <t>安信价值精选</t>
+  </si>
+  <si>
+    <t>易方达增强回报</t>
+  </si>
+  <si>
+    <t>东方红信用债A</t>
+  </si>
+  <si>
+    <t>招商产业</t>
+  </si>
+  <si>
+    <t>交银先进制造前段</t>
+  </si>
+  <si>
+    <t>交银新生活力灵活配置</t>
+  </si>
+  <si>
+    <t>安信新回报混合C</t>
+  </si>
+  <si>
+    <t>中邮未来新蓝筹混合</t>
+  </si>
+  <si>
+    <t>长安鑫富领先混合</t>
+  </si>
+  <si>
+    <t>享存S-1个月</t>
+  </si>
+  <si>
+    <t>新安新春盈30天</t>
+  </si>
+  <si>
+    <t>金裕存2号</t>
+  </si>
+  <si>
+    <t>资产</t>
+  </si>
+  <si>
+    <t>收益率</t>
   </si>
 </sst>
 </file>
@@ -153,12 +192,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,9 +224,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -647,7 +690,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>60000</v>
@@ -677,10 +720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98032447-137F-5544-9F5B-CB15EE9F4197}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,7 +774,7 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">NOW()</f>
-        <v>43930.486032407411</v>
+        <v>43962.636274652781</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -785,11 +828,11 @@
         <v>43704</v>
       </c>
       <c r="E5">
-        <v>1104.6199999999999</v>
+        <v>1164.6500000000001</v>
       </c>
       <c r="F5">
         <f ca="1">E5/B5 * 360 /($I$2-C5) * 100</f>
-        <v>3.5115913840079118</v>
+        <v>3.2421902191629917</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -803,11 +846,11 @@
         <v>43728</v>
       </c>
       <c r="E6">
-        <v>2737.18</v>
+        <v>5474.35</v>
       </c>
       <c r="F6">
         <f ca="1">E6/B6 * 360 /($I$2-C6) * 100</f>
-        <v>2.4332167218758154</v>
+        <v>4.1996191827465168</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -821,11 +864,11 @@
         <v>43839</v>
       </c>
       <c r="E9">
-        <v>360.15</v>
+        <v>499.9</v>
       </c>
       <c r="F9">
         <f ca="1">E9/B9 * 360 /($I$2-C9) * 100</f>
-        <v>2.5307141856251896</v>
+        <v>2.59927182873151</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -867,7 +910,8 @@
         <v>673.2</v>
       </c>
       <c r="F11">
-        <v>3.9</v>
+        <f>E11/B11 * 360 /(D11-C11) * 100</f>
+        <v>3.846857142857143</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -888,12 +932,42 @@
         <v>194.46</v>
       </c>
       <c r="F12">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G22" t="s">
-        <v>31</v>
+        <f>E12/B12 * 360 /(D12-C12) * 100</f>
+        <v>3.8464615384615382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>200000</v>
+      </c>
+      <c r="C13" s="2">
+        <f>D13-91</f>
+        <v>43840</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43931</v>
+      </c>
+      <c r="E13">
+        <v>1944.6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" si="0">E13/B13 * 360 /(D13-C13) * 100</f>
+        <v>3.8464615384615382</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <f>SUM(E9:E13)</f>
+        <v>3648.76</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <f>SUM(E2:E13)</f>
+        <v>17975.96</v>
       </c>
     </row>
   </sheetData>
@@ -902,98 +976,499 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE5F9FB-0D72-8B47-BF50-6DB021D0CB0D}">
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E262EA3-944D-C34F-8CA8-F18138FCC448}">
+  <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="17" max="17" width="16.5" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="H1" s="4" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1">
+        <f>G6+O6+W6+AD6</f>
+        <v>41443.769999999997</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1">
+        <f>O7+W7+AD7</f>
+        <v>1138991.6600000001</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3">
+        <f>B1/E1</f>
+        <v>3.6386368272441953E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="Q5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43598</v>
+      </c>
+      <c r="C6">
+        <v>90000</v>
+      </c>
+      <c r="D6">
+        <v>915.48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <f>SUM(D:D)</f>
+        <v>23570.03</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>60000</v>
+      </c>
+      <c r="K6">
+        <v>65762.03</v>
+      </c>
+      <c r="L6">
+        <f>K6-J6 - 443.35*2</f>
+        <v>4875.329999999999</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6">
+        <f>SUM(L:L)</f>
+        <v>16824.09</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6">
+        <v>49000</v>
+      </c>
+      <c r="V6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6">
+        <f>SUM(T:T)</f>
+        <v>-76.39</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6">
+        <v>110000</v>
+      </c>
+      <c r="AA6">
+        <v>407.31</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD6">
+        <f>SUM(AA:AA)</f>
+        <v>1126.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="N1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="S1" t="s">
+      <c r="B7" s="2">
+        <v>43665</v>
+      </c>
+      <c r="C7">
+        <v>70000</v>
+      </c>
+      <c r="D7">
+        <v>480.9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>60000</v>
+      </c>
+      <c r="K7">
+        <v>60253.62</v>
+      </c>
+      <c r="L7">
+        <f>K7-J7-594.06</f>
+        <v>-340.43999999999733</v>
+      </c>
+      <c r="N7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7">
+        <v>818991.66</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7">
+        <v>30000</v>
+      </c>
+      <c r="T7">
+        <f>-22.47*2</f>
+        <v>-44.94</v>
+      </c>
+      <c r="V7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7">
+        <v>100000</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z7">
+        <v>50000</v>
+      </c>
+      <c r="AA7">
+        <v>238.89</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD7">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B8" s="2">
+        <v>43688</v>
+      </c>
+      <c r="C8">
+        <v>50000</v>
+      </c>
+      <c r="D8">
+        <v>726.59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8">
+        <v>38000</v>
+      </c>
+      <c r="K8">
+        <v>42329.81</v>
+      </c>
+      <c r="L8">
+        <f>-561.58 + K8-J8</f>
+        <v>3768.2299999999959</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8">
+        <v>21000</v>
+      </c>
+      <c r="T8">
+        <f>-31.45</f>
+        <v>-31.45</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z8">
+        <v>60000</v>
+      </c>
+      <c r="AA8">
+        <v>479.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="S3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="S4" t="s">
+      <c r="B9" s="2">
+        <v>43746</v>
+      </c>
+      <c r="C9">
+        <v>100000</v>
+      </c>
+      <c r="D9">
+        <v>979.8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>30000</v>
+      </c>
+      <c r="K9">
+        <f>860.38+1265.27 + 37203.81</f>
+        <v>39329.46</v>
+      </c>
+      <c r="L9">
+        <f>-443.35 + K9 - J9</f>
+        <v>8886.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
+      <c r="B10" s="2">
+        <v>43748</v>
+      </c>
+      <c r="C10">
+        <v>140000</v>
+      </c>
+      <c r="D10">
+        <v>1422.26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>40000</v>
+      </c>
+      <c r="K10">
+        <f>1630.96 + 1215.81</f>
+        <v>2846.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43762</v>
+      </c>
+      <c r="C11">
+        <v>70000</v>
+      </c>
+      <c r="D11">
+        <v>704.2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11">
+        <v>20000</v>
+      </c>
+      <c r="K11">
+        <f>1098.17 + 578.77</f>
+        <v>1676.94</v>
+      </c>
+      <c r="L11">
+        <f>-158.73</f>
+        <v>-158.72999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43833</v>
+      </c>
+      <c r="C12">
+        <v>300000</v>
+      </c>
+      <c r="D12">
+        <v>5998.5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12">
+        <v>30000</v>
+      </c>
+      <c r="K12">
+        <f>524.9 + 262.45</f>
+        <v>787.34999999999991</v>
+      </c>
+      <c r="L12">
+        <f>-238.1</f>
+        <v>-238.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43847</v>
+      </c>
+      <c r="C13">
+        <v>100000</v>
+      </c>
+      <c r="D13">
+        <v>984.8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13">
+        <v>50000</v>
+      </c>
+      <c r="L13">
+        <f>-396.82</f>
+        <v>-396.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43864</v>
+      </c>
+      <c r="C14">
+        <v>70000</v>
+      </c>
+      <c r="D14">
+        <v>704.9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14">
+        <v>30000</v>
+      </c>
+      <c r="K14">
+        <v>31315.21</v>
+      </c>
+      <c r="L14">
+        <f>K14-J14-443.35</f>
+        <v>871.8599999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43903</v>
+      </c>
+      <c r="C15">
+        <v>50000</v>
+      </c>
+      <c r="D15">
+        <v>336.6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15">
+        <v>30000</v>
+      </c>
+      <c r="L15">
+        <f>-443.35</f>
+        <v>-443.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43916</v>
+      </c>
+      <c r="C16">
+        <v>100000</v>
+      </c>
+      <c r="D16">
+        <v>673.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C17">
+        <v>20000</v>
+      </c>
+      <c r="D17">
+        <v>194.46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C18">
+        <v>200000</v>
+      </c>
+      <c r="D18">
+        <v>1994.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>200000</v>
+      </c>
+      <c r="D26">
+        <v>5474.35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>56000</v>
+      </c>
+      <c r="D27">
+        <v>682.66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>50000</v>
+      </c>
+      <c r="D28">
+        <v>1296.73</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="N1:Q1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/投资.xlsx
+++ b/投资.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roy/Documents/Investment/Investment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roy/Documents/Investment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F14F873-F612-6B47-B0B3-9C78564303C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0112081-3899-374E-9BD4-FE08D5FA827A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" activeTab="2" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16580" activeTab="2" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
   </bookViews>
   <sheets>
     <sheet name="基金" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>东方红信用债</t>
   </si>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>收益率</t>
+  </si>
+  <si>
+    <t>交银新生活力灵活配置混合</t>
+  </si>
+  <si>
+    <t>中银珍利混合C</t>
+  </si>
+  <si>
+    <t>长信乐信灵活配置混合C</t>
+  </si>
+  <si>
+    <t>广发趋势优选灵活配置混合A</t>
   </si>
 </sst>
 </file>
@@ -219,12 +231,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,7 +787,7 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">NOW()</f>
-        <v>43962.636274652781</v>
+        <v>44001.715214351854</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -832,7 +845,7 @@
       </c>
       <c r="F5">
         <f ca="1">E5/B5 * 360 /($I$2-C5) * 100</f>
-        <v>3.2421902191629917</v>
+        <v>2.8166111759708845</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -850,7 +863,7 @@
       </c>
       <c r="F6">
         <f ca="1">E6/B6 * 360 /($I$2-C6) * 100</f>
-        <v>4.1996191827465168</v>
+        <v>3.6000300616585901</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -868,7 +881,7 @@
       </c>
       <c r="F9">
         <f ca="1">E9/B9 * 360 /($I$2-C9) * 100</f>
-        <v>2.59927182873151</v>
+        <v>1.9750106773627807</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -980,14 +993,15 @@
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="22.1640625" customWidth="1"/>
-    <col min="17" max="17" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -997,21 +1011,21 @@
       </c>
       <c r="B1">
         <f>G6+O6+W6+AD6</f>
-        <v>41443.769999999997</v>
+        <v>74332.63</v>
       </c>
       <c r="D1" t="s">
         <v>43</v>
       </c>
       <c r="E1">
         <f>O7+W7+AD7</f>
-        <v>1138991.6600000001</v>
+        <v>1182592.7</v>
       </c>
       <c r="G1" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="3">
         <f>B1/E1</f>
-        <v>3.6386368272441953E-2</v>
+        <v>6.2855647595321709E-2</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -1045,7 +1059,7 @@
       </c>
       <c r="G6">
         <f>SUM(D:D)</f>
-        <v>23570.03</v>
+        <v>27614.989999999994</v>
       </c>
       <c r="I6" t="s">
         <v>30</v>
@@ -1060,12 +1074,15 @@
         <f>K6-J6 - 443.35*2</f>
         <v>4875.329999999999</v>
       </c>
+      <c r="M6">
+        <v>8443.75</v>
+      </c>
       <c r="N6" t="s">
         <v>29</v>
       </c>
       <c r="O6">
-        <f>SUM(L:L)</f>
-        <v>16824.09</v>
+        <f>SUM(L:L) +M6</f>
+        <v>25267.84</v>
       </c>
       <c r="Q6" t="s">
         <v>37</v>
@@ -1073,12 +1090,17 @@
       <c r="R6">
         <v>49000</v>
       </c>
+      <c r="T6">
+        <v>6079.31</v>
+      </c>
+      <c r="U6">
+        <v>9596.65</v>
+      </c>
       <c r="V6" t="s">
         <v>29</v>
       </c>
       <c r="W6">
-        <f>SUM(T:T)</f>
-        <v>-76.39</v>
+        <v>19046.560000000001</v>
       </c>
       <c r="Y6" t="s">
         <v>40</v>
@@ -1087,14 +1109,13 @@
         <v>110000</v>
       </c>
       <c r="AA6">
-        <v>407.31</v>
+        <v>735.78</v>
       </c>
       <c r="AC6" t="s">
         <v>29</v>
       </c>
       <c r="AD6">
-        <f>SUM(AA:AA)</f>
-        <v>1126.04</v>
+        <v>2403.2399999999998</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -1130,7 +1151,8 @@
         <v>43</v>
       </c>
       <c r="O7">
-        <v>818991.66</v>
+        <f>813077.18-143160.54</f>
+        <v>669916.64</v>
       </c>
       <c r="Q7" t="s">
         <v>38</v>
@@ -1138,30 +1160,37 @@
       <c r="R7">
         <v>30000</v>
       </c>
-      <c r="T7">
+      <c r="S7">
         <f>-22.47*2</f>
         <v>-44.94</v>
       </c>
+      <c r="T7">
+        <v>2750.68</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:U8" si="0">T7+S7</f>
+        <v>2705.74</v>
+      </c>
       <c r="V7" t="s">
         <v>43</v>
       </c>
       <c r="W7">
-        <v>100000</v>
+        <v>201676.06</v>
       </c>
       <c r="Y7" t="s">
         <v>41</v>
       </c>
       <c r="Z7">
-        <v>50000</v>
+        <v>141000</v>
       </c>
       <c r="AA7">
-        <v>238.89</v>
+        <v>480.06</v>
       </c>
       <c r="AC7" t="s">
         <v>43</v>
       </c>
       <c r="AD7">
-        <v>220000</v>
+        <v>311000</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -1196,10 +1225,17 @@
       <c r="R8">
         <v>21000</v>
       </c>
-      <c r="T8">
+      <c r="S8">
         <f>-31.45</f>
         <v>-31.45</v>
       </c>
+      <c r="T8">
+        <v>2054.7199999999998</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>2023.2699999999998</v>
+      </c>
       <c r="Y8" t="s">
         <v>42</v>
       </c>
@@ -1207,7 +1243,7 @@
         <v>60000</v>
       </c>
       <c r="AA8">
-        <v>479.84</v>
+        <v>651.66999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -1237,6 +1273,23 @@
         <f>-443.35 + K9 - J9</f>
         <v>8886.11</v>
       </c>
+      <c r="Q9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9">
+        <v>27266.98</v>
+      </c>
+      <c r="S9">
+        <f>-18.37-30</f>
+        <v>-48.370000000000005</v>
+      </c>
+      <c r="T9">
+        <v>2.6</v>
+      </c>
+      <c r="U9">
+        <f>T9+S9</f>
+        <v>-45.77</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1261,6 +1314,19 @@
         <f>1630.96 + 1215.81</f>
         <v>2846.77</v>
       </c>
+      <c r="Q10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10">
+        <v>18879.490000000002</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" ref="U10:U12" si="1">T10+S10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1289,6 +1355,19 @@
         <f>-158.73</f>
         <v>-158.72999999999999</v>
       </c>
+      <c r="Q11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11">
+        <v>11326.75</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1317,6 +1396,20 @@
         <f>-238.1</f>
         <v>-238.1</v>
       </c>
+      <c r="Q12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R12">
+        <v>7544.21</v>
+      </c>
+      <c r="S12" s="5">
+        <f>-R12*0.15/100</f>
+        <v>-11.316314999999999</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>-11.316314999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1435,6 +1528,48 @@
         <v>1994.6</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>43971</v>
+      </c>
+      <c r="C19">
+        <v>50000</v>
+      </c>
+      <c r="D19">
+        <v>345.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2">
+        <v>43976</v>
+      </c>
+      <c r="C20">
+        <v>90000</v>
+      </c>
+      <c r="D20">
+        <v>845.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44001</v>
+      </c>
+      <c r="C21">
+        <v>160000</v>
+      </c>
+      <c r="D21">
+        <v>1049.44</v>
+      </c>
+    </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
@@ -1443,7 +1578,7 @@
         <v>200000</v>
       </c>
       <c r="D26">
-        <v>5474.35</v>
+        <v>6889.49</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1454,7 +1589,7 @@
         <v>56000</v>
       </c>
       <c r="D27">
-        <v>682.66</v>
+        <v>876.18</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1465,7 +1600,7 @@
         <v>50000</v>
       </c>
       <c r="D28">
-        <v>1296.73</v>
+        <v>1492.84</v>
       </c>
     </row>
   </sheetData>

--- a/投资.xlsx
+++ b/投资.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roy/Documents/Investment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0112081-3899-374E-9BD4-FE08D5FA827A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C145D4E-F3C3-AB41-B441-F78EFE907CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16580" activeTab="2" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>东方红信用债</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>广发趋势优选灵活配置混合A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天添金稳健型		</t>
   </si>
 </sst>
 </file>
@@ -787,7 +790,7 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">NOW()</f>
-        <v>44001.715214351854</v>
+        <v>44024.846394675929</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -845,7 +848,7 @@
       </c>
       <c r="F5">
         <f ca="1">E5/B5 * 360 /($I$2-C5) * 100</f>
-        <v>2.8166111759708845</v>
+        <v>2.6135497045150684</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -863,7 +866,7 @@
       </c>
       <c r="F6">
         <f ca="1">E6/B6 * 360 /($I$2-C6) * 100</f>
-        <v>3.6000300616585901</v>
+        <v>3.3195046922357072</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -881,7 +884,7 @@
       </c>
       <c r="F9">
         <f ca="1">E9/B9 * 360 /($I$2-C9) * 100</f>
-        <v>1.9750106773627807</v>
+        <v>1.7291930051947815</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -990,10 +993,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E262EA3-944D-C34F-8CA8-F18138FCC448}">
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1011,7 +1014,7 @@
       </c>
       <c r="B1">
         <f>G6+O6+W6+AD6</f>
-        <v>74332.63</v>
+        <v>74337.100000000006</v>
       </c>
       <c r="D1" t="s">
         <v>43</v>
@@ -1025,7 +1028,7 @@
       </c>
       <c r="H1" s="3">
         <f>B1/E1</f>
-        <v>6.2855647595321709E-2</v>
+        <v>6.2859427425858469E-2</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -1059,7 +1062,7 @@
       </c>
       <c r="G6">
         <f>SUM(D:D)</f>
-        <v>27614.989999999994</v>
+        <v>27619.46</v>
       </c>
       <c r="I6" t="s">
         <v>30</v>
@@ -1570,6 +1573,20 @@
         <v>1049.44</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2">
+        <v>47300</v>
+      </c>
+      <c r="C22">
+        <v>50000</v>
+      </c>
+      <c r="D22">
+        <v>1497.31</v>
+      </c>
+    </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
@@ -1590,17 +1607,6 @@
       </c>
       <c r="D27">
         <v>876.18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28">
-        <v>50000</v>
-      </c>
-      <c r="D28">
-        <v>1492.84</v>
       </c>
     </row>
   </sheetData>

--- a/投资.xlsx
+++ b/投资.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roy/Documents/Investment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mazy\Python\Investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C145D4E-F3C3-AB41-B441-F78EFE907CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DE8B55-B29B-400E-A641-30EDCC4A941D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16580" activeTab="2" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
+    <workbookView xWindow="3030" yWindow="1620" windowWidth="31665" windowHeight="16710" activeTab="3" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
   </bookViews>
   <sheets>
     <sheet name="基金" sheetId="1" r:id="rId1"/>
     <sheet name="理财" sheetId="2" r:id="rId2"/>
     <sheet name="总结" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t>东方红信用债</t>
   </si>
@@ -185,6 +186,30 @@
   </si>
   <si>
     <t xml:space="preserve">天添金稳健型		</t>
+  </si>
+  <si>
+    <t>现金</t>
+  </si>
+  <si>
+    <t>理财</t>
+  </si>
+  <si>
+    <t>基金</t>
+  </si>
+  <si>
+    <t>股票</t>
+  </si>
+  <si>
+    <t>收益</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">成本 </t>
   </si>
 </sst>
 </file>
@@ -562,13 +587,13 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="5" max="6" width="13.1640625" customWidth="1"/>
+    <col min="5" max="6" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -588,12 +613,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -618,7 +643,7 @@
         <v>8.648637603043749E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -643,7 +668,7 @@
         <v>0.23604657831325296</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -655,7 +680,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -667,7 +692,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -679,7 +704,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -704,7 +729,7 @@
         <v>9.7725137614679894E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -742,14 +767,14 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -769,7 +794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -790,10 +815,10 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">NOW()</f>
-        <v>44024.846394675929</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44059.272618634262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -813,7 +838,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -833,7 +858,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -848,10 +873,10 @@
       </c>
       <c r="F5">
         <f ca="1">E5/B5 * 360 /($I$2-C5) * 100</f>
-        <v>2.6135497045150684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.3602944781490418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -866,10 +891,10 @@
       </c>
       <c r="F6">
         <f ca="1">E6/B6 * 360 /($I$2-C6) * 100</f>
-        <v>3.3195046922357072</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.9745380226788387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -884,10 +909,10 @@
       </c>
       <c r="F9">
         <f ca="1">E9/B9 * 360 /($I$2-C9) * 100</f>
-        <v>1.7291930051947815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.4589388717799481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -908,7 +933,7 @@
         <v>3.846857142857143</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -930,7 +955,7 @@
         <v>3.846857142857143</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -952,7 +977,7 @@
         <v>3.8464615384615382</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -974,13 +999,13 @@
         <v>3.8464615384615382</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19">
         <f>SUM(E9:E13)</f>
         <v>3648.76</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E21">
         <f>SUM(E2:E13)</f>
         <v>17975.96</v>
@@ -995,20 +1020,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E262EA3-944D-C34F-8CA8-F18138FCC448}">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" customWidth="1"/>
-    <col min="17" max="17" width="24.83203125" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="17" max="17" width="24.875" customWidth="1"/>
+    <col min="19" max="19" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1031,7 +1056,7 @@
         <v>6.2859427425858469E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1044,7 +1069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1121,7 +1146,7 @@
         <v>2403.2399999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1196,7 +1221,7 @@
         <v>311000</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1249,7 +1274,7 @@
         <v>651.66999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1294,7 +1319,7 @@
         <v>-45.77</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1331,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1372,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1414,7 +1439,7 @@
         <v>-11.316314999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1438,7 +1463,7 @@
         <v>-396.82</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1465,7 +1490,7 @@
         <v>871.8599999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1489,7 +1514,7 @@
         <v>-443.35</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1503,7 +1528,7 @@
         <v>673.2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1517,7 +1542,7 @@
         <v>194.46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1531,7 +1556,7 @@
         <v>1994.6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1545,7 +1570,7 @@
         <v>345.2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1559,7 +1584,7 @@
         <v>845.55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1573,7 +1598,7 @@
         <v>1049.44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1587,7 +1612,7 @@
         <v>1497.31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1598,7 +1623,7 @@
         <v>6889.49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1607,6 +1632,223 @@
       </c>
       <c r="D27">
         <v>876.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B7A783-521F-49BE-BCAF-A0FA8FD6C3B9}">
+  <dimension ref="A2:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>10520.43</v>
+      </c>
+      <c r="C4">
+        <v>19685.669999999998</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4">
+        <v>46127.1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4">
+        <v>4305.54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4">
+        <v>193</v>
+      </c>
+      <c r="N4">
+        <v>207.25</v>
+      </c>
+      <c r="O4">
+        <f>(N4-M4)*1000</f>
+        <v>14250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>200000</v>
+      </c>
+      <c r="C5">
+        <f>C6-C4</f>
+        <v>164426.49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5">
+        <f>G6-G4</f>
+        <v>227629.49999999997</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5">
+        <v>220000</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5">
+        <v>193428.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <f>B5+B4</f>
+        <v>210520.43</v>
+      </c>
+      <c r="C6">
+        <v>184112.16</v>
+      </c>
+      <c r="D6">
+        <v>140806.63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>273756.59999999998</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6">
+        <f>J5+J4</f>
+        <v>224305.54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6">
+        <f>M5+O4</f>
+        <v>207678.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3">
+        <f>B4/B5</f>
+        <v>5.260215E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <f>C4/C5</f>
+        <v>0.1197232270785565</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3">
+        <f>G4/G5</f>
+        <v>0.20264113394792857</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="3">
+        <f>J4/J5</f>
+        <v>1.9570636363636363E-2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="3">
+        <f>O4/M5</f>
+        <v>7.3670648052515122E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <f>B4+G4+J4+O4+C4</f>
+        <v>94888.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <f>B5+C5+G5+J5+M5</f>
+        <v>1005484.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3">
+        <f>B12/B13</f>
+        <v>9.4371166058311501E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <f>B13+B12+D6</f>
+        <v>1241179.8199999998</v>
       </c>
     </row>
   </sheetData>

--- a/投资.xlsx
+++ b/投资.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mazy\Python\Investment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roy/Documents/Investment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DE8B55-B29B-400E-A641-30EDCC4A941D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1274CA-DADD-1B47-8C29-4244BF3A6A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="1620" windowWidth="31665" windowHeight="16710" activeTab="3" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
+    <workbookView xWindow="31620" yWindow="4080" windowWidth="28800" windowHeight="16680" activeTab="3" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
   </bookViews>
   <sheets>
     <sheet name="基金" sheetId="1" r:id="rId1"/>
@@ -587,13 +587,13 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="5" max="6" width="13.125" customWidth="1"/>
+    <col min="5" max="6" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -613,12 +613,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -643,7 +643,7 @@
         <v>8.648637603043749E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -668,7 +668,7 @@
         <v>0.23604657831325296</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -680,7 +680,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -692,7 +692,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -704,7 +704,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -729,7 +729,7 @@
         <v>9.7725137614679894E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -767,14 +767,14 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -794,7 +794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -815,10 +815,10 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">NOW()</f>
-        <v>44059.272618634262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44073.882049074076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -838,7 +838,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -858,7 +858,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -873,10 +873,10 @@
       </c>
       <c r="F5">
         <f ca="1">E5/B5 * 360 /($I$2-C5) * 100</f>
-        <v>2.3602944781490418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.2670686563436444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -891,10 +891,10 @@
       </c>
       <c r="F6">
         <f ca="1">E6/B6 * 360 /($I$2-C6) * 100</f>
-        <v>2.9745380226788387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.8488989314070015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -909,10 +909,10 @@
       </c>
       <c r="F9">
         <f ca="1">E9/B9 * 360 /($I$2-C9) * 100</f>
-        <v>1.4589388717799481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.3681943212822316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -933,7 +933,7 @@
         <v>3.846857142857143</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -955,7 +955,7 @@
         <v>3.846857142857143</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -977,7 +977,7 @@
         <v>3.8464615384615382</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -999,13 +999,13 @@
         <v>3.8464615384615382</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19">
         <f>SUM(E9:E13)</f>
         <v>3648.76</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21">
         <f>SUM(E2:E13)</f>
         <v>17975.96</v>
@@ -1024,16 +1024,16 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
-    <col min="17" max="17" width="24.875" customWidth="1"/>
-    <col min="19" max="19" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>6.2859427425858469E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>2403.2399999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>311000</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>651.66999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>-45.77</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>-11.316314999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>-396.82</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>871.8599999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>-443.35</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>673.2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>194.46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>1994.6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>345.2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>845.55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>1049.44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>1497.31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>6889.49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1641,20 +1641,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B7A783-521F-49BE-BCAF-A0FA8FD6C3B9}">
-  <dimension ref="A2:O15"/>
+  <dimension ref="A2:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1674,27 +1674,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
       <c r="B4">
-        <v>10520.43</v>
+        <v>11581.79</v>
       </c>
       <c r="C4">
-        <v>19685.669999999998</v>
+        <v>22237.77</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
       </c>
       <c r="G4">
-        <v>46127.1</v>
+        <v>54429.86</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
       </c>
       <c r="J4">
-        <v>4305.54</v>
+        <v>4669.07</v>
       </c>
       <c r="L4" t="s">
         <v>54</v>
@@ -1703,14 +1703,21 @@
         <v>193</v>
       </c>
       <c r="N4">
-        <v>207.25</v>
+        <v>220.3</v>
       </c>
       <c r="O4">
         <f>(N4-M4)*1000</f>
-        <v>14250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27300.000000000011</v>
+      </c>
+      <c r="Q4">
+        <v>200.39</v>
+      </c>
+      <c r="R4">
+        <f>(N4-Q4)*500</f>
+        <v>9955.0000000000127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1719,14 +1726,14 @@
       </c>
       <c r="C5">
         <f>C6-C4</f>
-        <v>164426.49</v>
+        <v>164426.49000000002</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
       </c>
       <c r="G5">
         <f>G6-G4</f>
-        <v>227629.49999999997</v>
+        <v>227629.28000000003</v>
       </c>
       <c r="I5" t="s">
         <v>55</v>
@@ -1738,117 +1745,124 @@
         <v>55</v>
       </c>
       <c r="M5">
-        <v>193428.46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <f>193428.46+100195</f>
+        <v>293623.45999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6">
         <f>B5+B4</f>
-        <v>210520.43</v>
+        <v>211581.79</v>
       </c>
       <c r="C6">
-        <v>184112.16</v>
+        <v>186664.26</v>
       </c>
       <c r="D6">
-        <v>140806.63</v>
+        <v>35901.71</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
       <c r="G6">
-        <v>273756.59999999998</v>
+        <v>282059.14</v>
       </c>
       <c r="I6" t="s">
         <v>29</v>
       </c>
       <c r="J6">
         <f>J5+J4</f>
-        <v>224305.54</v>
+        <v>224669.07</v>
       </c>
       <c r="L6" t="s">
         <v>29</v>
       </c>
       <c r="M6">
         <f>M5+O4</f>
-        <v>207678.46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>320923.45999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="3">
         <f>B4/B5</f>
-        <v>5.260215E-2</v>
+        <v>5.7908950000000008E-2</v>
       </c>
       <c r="C7" s="3">
         <f>C4/C5</f>
-        <v>0.1197232270785565</v>
+        <v>0.13524444875031996</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="3">
         <f>G4/G5</f>
-        <v>0.20264113394792857</v>
+        <v>0.23911625077406559</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="3">
         <f>J4/J5</f>
-        <v>1.9570636363636363E-2</v>
+        <v>2.1223045454545453E-2</v>
       </c>
       <c r="L7" t="s">
         <v>44</v>
       </c>
       <c r="M7" s="3">
         <f>O4/M5</f>
-        <v>7.3670648052515122E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.2976221995340613E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
       <c r="B12">
         <f>B4+G4+J4+O4+C4</f>
-        <v>94888.74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>120218.49000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>57</v>
       </c>
       <c r="B13">
         <f>B5+C5+G5+J5+M5</f>
-        <v>1005484.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1105679.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="3">
         <f>B12/B13</f>
-        <v>9.4371166058311501E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.10872817969095795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="B15">
         <f>B13+B12+D6</f>
-        <v>1241179.8199999998</v>
+        <v>1261799.43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f>B6+C6+D6+G6+J6+M6</f>
+        <v>1261799.4300000002</v>
       </c>
     </row>
   </sheetData>

--- a/投资.xlsx
+++ b/投资.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roy/Documents/Investment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mazy\Python\Investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1274CA-DADD-1B47-8C29-4244BF3A6A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956EB382-E836-4446-BAC1-ECF7FCB29D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="4080" windowWidth="28800" windowHeight="16680" activeTab="3" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
+    <workbookView xWindow="3030" yWindow="1605" windowWidth="31650" windowHeight="16725" activeTab="3" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
   </bookViews>
   <sheets>
     <sheet name="基金" sheetId="1" r:id="rId1"/>
@@ -216,6 +216,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -259,13 +262,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,13 +591,13 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="5" max="6" width="13.1640625" customWidth="1"/>
+    <col min="5" max="6" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -613,12 +617,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -643,7 +647,7 @@
         <v>8.648637603043749E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -668,7 +672,7 @@
         <v>0.23604657831325296</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -680,7 +684,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -692,7 +696,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -704,7 +708,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -729,7 +733,7 @@
         <v>9.7725137614679894E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -767,14 +771,14 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -794,7 +798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -815,10 +819,10 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">NOW()</f>
-        <v>44073.882049074076</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44087.223678472219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -838,7 +842,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -858,7 +862,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -873,10 +877,10 @@
       </c>
       <c r="F5">
         <f ca="1">E5/B5 * 360 /($I$2-C5) * 100</f>
-        <v>2.2670686563436444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.1881424533656229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -891,10 +895,10 @@
       </c>
       <c r="F6">
         <f ca="1">E6/B6 * 360 /($I$2-C6) * 100</f>
-        <v>2.8488989314070015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.7430903335516224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -909,10 +913,10 @@
       </c>
       <c r="F9">
         <f ca="1">E9/B9 * 360 /($I$2-C9) * 100</f>
-        <v>1.3681943212822316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.294656044468588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -933,7 +937,7 @@
         <v>3.846857142857143</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -955,7 +959,7 @@
         <v>3.846857142857143</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -977,7 +981,7 @@
         <v>3.8464615384615382</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -999,13 +1003,13 @@
         <v>3.8464615384615382</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19">
         <f>SUM(E9:E13)</f>
         <v>3648.76</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E21">
         <f>SUM(E2:E13)</f>
         <v>17975.96</v>
@@ -1024,16 +1028,16 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" customWidth="1"/>
-    <col min="17" max="17" width="24.83203125" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="17" max="17" width="24.875" customWidth="1"/>
+    <col min="19" max="19" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1056,7 +1060,7 @@
         <v>6.2859427425858469E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1069,7 +1073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1146,7 +1150,7 @@
         <v>2403.2399999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1221,7 +1225,7 @@
         <v>311000</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>651.66999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1319,7 +1323,7 @@
         <v>-45.77</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1356,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1397,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>-11.316314999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1463,7 +1467,7 @@
         <v>-396.82</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>871.8599999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>-443.35</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1528,7 +1532,7 @@
         <v>673.2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1542,7 +1546,7 @@
         <v>194.46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1556,7 +1560,7 @@
         <v>1994.6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>345.2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1584,7 +1588,7 @@
         <v>845.55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1598,7 +1602,7 @@
         <v>1049.44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1612,7 +1616,7 @@
         <v>1497.31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1623,7 +1627,7 @@
         <v>6889.49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1644,18 +1648,21 @@
   <dimension ref="A2:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>51</v>
       </c>
       <c r="C3" t="s">
@@ -1674,7 +1681,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1682,19 +1689,19 @@
         <v>11581.79</v>
       </c>
       <c r="C4">
-        <v>22237.77</v>
+        <v>18805.060000000001</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
       </c>
       <c r="G4">
-        <v>54429.86</v>
+        <v>41992.71</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
       </c>
       <c r="J4">
-        <v>4669.07</v>
+        <v>5034.88</v>
       </c>
       <c r="L4" t="s">
         <v>54</v>
@@ -1703,21 +1710,21 @@
         <v>193</v>
       </c>
       <c r="N4">
-        <v>220.3</v>
+        <v>207.21</v>
       </c>
       <c r="O4">
         <f>(N4-M4)*1000</f>
-        <v>27300.000000000011</v>
+        <v>14210.000000000007</v>
       </c>
       <c r="Q4">
         <v>200.39</v>
       </c>
       <c r="R4">
         <f>(N4-Q4)*500</f>
-        <v>9955.0000000000127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3410.0000000000109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1726,14 +1733,14 @@
       </c>
       <c r="C5">
         <f>C6-C4</f>
-        <v>164426.49000000002</v>
+        <v>167859.20000000001</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
       </c>
       <c r="G5">
         <f>G6-G4</f>
-        <v>227629.28000000003</v>
+        <v>267629.5</v>
       </c>
       <c r="I5" t="s">
         <v>55</v>
@@ -1749,7 +1756,7 @@
         <v>293623.45999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1761,30 +1768,30 @@
         <v>186664.26</v>
       </c>
       <c r="D6">
-        <v>35901.71</v>
+        <v>3301.86</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
       <c r="G6">
-        <v>282059.14</v>
+        <v>309622.21000000002</v>
       </c>
       <c r="I6" t="s">
         <v>29</v>
       </c>
       <c r="J6">
         <f>J5+J4</f>
-        <v>224669.07</v>
+        <v>225034.88</v>
       </c>
       <c r="L6" t="s">
         <v>29</v>
       </c>
       <c r="M6">
-        <f>M5+O4</f>
-        <v>320923.45999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <f>M5+O4+R4</f>
+        <v>311243.45999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1794,75 +1801,75 @@
       </c>
       <c r="C7" s="3">
         <f>C4/C5</f>
-        <v>0.13524444875031996</v>
+        <v>0.11202877173249962</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="3">
         <f>G4/G5</f>
-        <v>0.23911625077406559</v>
+        <v>0.15690613329248082</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="3">
         <f>J4/J5</f>
-        <v>2.1223045454545453E-2</v>
+        <v>2.2885818181818181E-2</v>
       </c>
       <c r="L7" t="s">
         <v>44</v>
       </c>
       <c r="M7" s="3">
         <f>O4/M5</f>
-        <v>9.2976221995340613E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>4.8395315551420889E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
       <c r="B12">
-        <f>B4+G4+J4+O4+C4</f>
-        <v>120218.49000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <f>B4+G4+J4+O4+C4+R4</f>
+        <v>95034.440000000017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
       <c r="B13">
         <f>B5+C5+G5+J5+M5</f>
-        <v>1105679.23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1149112.1599999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="3">
         <f>B12/B13</f>
-        <v>0.10872817969095795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>8.2702492679217685E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <f>B13+B12+D6</f>
-        <v>1261799.43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18">
+        <v>1247448.46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
         <f>B6+C6+D6+G6+J6+M6</f>
-        <v>1261799.4300000002</v>
+        <v>1247448.46</v>
       </c>
     </row>
   </sheetData>

--- a/投资.xlsx
+++ b/投资.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mazy\Python\Investment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roy/Documents/Investment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956EB382-E836-4446-BAC1-ECF7FCB29D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE223EB4-53A7-E444-87B2-A2162546BCD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="1605" windowWidth="31650" windowHeight="16725" activeTab="3" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="3" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
   </bookViews>
   <sheets>
     <sheet name="基金" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -269,7 +269,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,13 +591,13 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="5" max="6" width="13.125" customWidth="1"/>
+    <col min="5" max="6" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -617,12 +617,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -647,7 +647,7 @@
         <v>8.648637603043749E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -672,7 +672,7 @@
         <v>0.23604657831325296</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -684,7 +684,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -696,7 +696,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -708,7 +708,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -733,7 +733,7 @@
         <v>9.7725137614679894E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -771,14 +771,14 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -798,7 +798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -819,10 +819,10 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">NOW()</f>
-        <v>44087.223678472219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44093.944539004631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -842,7 +842,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -862,7 +862,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -877,10 +877,10 @@
       </c>
       <c r="F5">
         <f ca="1">E5/B5 * 360 /($I$2-C5) * 100</f>
-        <v>2.1881424533656229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.1504288844266672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -895,10 +895,10 @@
       </c>
       <c r="F6">
         <f ca="1">E6/B6 * 360 /($I$2-C6) * 100</f>
-        <v>2.7430903335516224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.6927113127039437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -913,10 +913,10 @@
       </c>
       <c r="F9">
         <f ca="1">E9/B9 * 360 /($I$2-C9) * 100</f>
-        <v>1.294656044468588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.2605262578636678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -937,7 +937,7 @@
         <v>3.846857142857143</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -959,7 +959,7 @@
         <v>3.846857142857143</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -981,7 +981,7 @@
         <v>3.8464615384615382</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1003,13 +1003,13 @@
         <v>3.8464615384615382</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19">
         <f>SUM(E9:E13)</f>
         <v>3648.76</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21">
         <f>SUM(E2:E13)</f>
         <v>17975.96</v>
@@ -1028,16 +1028,16 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
-    <col min="17" max="17" width="24.875" customWidth="1"/>
-    <col min="19" max="19" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>6.2859427425858469E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>2403.2399999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>311000</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>651.66999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>-45.77</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>-11.316314999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>-396.82</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>871.8599999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>-443.35</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>673.2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>194.46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>1994.6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>345.2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>845.55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>1049.44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>1497.31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>6889.49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1648,20 +1648,20 @@
   <dimension ref="A2:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1689,19 +1689,19 @@
         <v>11581.79</v>
       </c>
       <c r="C4">
-        <v>18805.060000000001</v>
+        <v>19721.86</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
       </c>
       <c r="G4">
-        <v>41992.71</v>
+        <v>45886.66</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
       </c>
       <c r="J4">
-        <v>5034.88</v>
+        <v>5192.05</v>
       </c>
       <c r="L4" t="s">
         <v>54</v>
@@ -1710,21 +1710,21 @@
         <v>193</v>
       </c>
       <c r="N4">
-        <v>207.21</v>
+        <v>216</v>
       </c>
       <c r="O4">
         <f>(N4-M4)*1000</f>
-        <v>14210.000000000007</v>
+        <v>23000</v>
       </c>
       <c r="Q4">
         <v>200.39</v>
       </c>
       <c r="R4">
         <f>(N4-Q4)*500</f>
-        <v>3410.0000000000109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7805.0000000000073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1733,14 +1733,14 @@
       </c>
       <c r="C5">
         <f>C6-C4</f>
-        <v>167859.20000000001</v>
+        <v>166942.40000000002</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
       </c>
       <c r="G5">
         <f>G6-G4</f>
-        <v>267629.5</v>
+        <v>263735.55000000005</v>
       </c>
       <c r="I5" t="s">
         <v>55</v>
@@ -1756,7 +1756,7 @@
         <v>293623.45999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>186664.26</v>
       </c>
       <c r="D6">
-        <v>3301.86</v>
+        <v>4176.8599999999997</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -1781,17 +1781,17 @@
       </c>
       <c r="J6">
         <f>J5+J4</f>
-        <v>225034.88</v>
+        <v>225192.05</v>
       </c>
       <c r="L6" t="s">
         <v>29</v>
       </c>
       <c r="M6">
         <f>M5+O4+R4</f>
-        <v>311243.45999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>324428.45999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1801,75 +1801,75 @@
       </c>
       <c r="C7" s="3">
         <f>C4/C5</f>
-        <v>0.11202877173249962</v>
+        <v>0.11813571627100124</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="3">
         <f>G4/G5</f>
-        <v>0.15690613329248082</v>
+        <v>0.17398739002004088</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="3">
         <f>J4/J5</f>
-        <v>2.2885818181818181E-2</v>
+        <v>2.3600227272727273E-2</v>
       </c>
       <c r="L7" t="s">
         <v>44</v>
       </c>
       <c r="M7" s="3">
         <f>O4/M5</f>
-        <v>4.8395315551420889E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7.8331615600470084E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
       <c r="B12">
         <f>B4+G4+J4+O4+C4+R4</f>
-        <v>95034.440000000017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>113187.36000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>57</v>
       </c>
       <c r="B13">
         <f>B5+C5+G5+J5+M5</f>
-        <v>1149112.1599999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1144301.4100000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="3">
         <f>B12/B13</f>
-        <v>8.2702492679217685E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9.8913939116792665E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="6">
         <f>B13+B12+D6</f>
-        <v>1247448.46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>1261665.6300000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="6">
         <f>B6+C6+D6+G6+J6+M6</f>
-        <v>1247448.46</v>
+        <v>1261665.6300000001</v>
       </c>
     </row>
   </sheetData>

--- a/投资.xlsx
+++ b/投资.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roy/Documents/Investment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE223EB4-53A7-E444-87B2-A2162546BCD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F6F0E3-98DD-A74C-8775-6A47EAA78039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="3" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
+    <workbookView xWindow="39660" yWindow="6720" windowWidth="28800" windowHeight="16680" activeTab="3" xr2:uid="{AC92DC69-0ADF-DF4F-ABE7-F2CC23157859}"/>
   </bookViews>
   <sheets>
     <sheet name="基金" sheetId="1" r:id="rId1"/>
@@ -819,7 +819,7 @@
       </c>
       <c r="I2" s="1">
         <f ca="1">NOW()</f>
-        <v>44093.944539004631</v>
+        <v>44110.90648784722</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -877,7 +877,7 @@
       </c>
       <c r="F5">
         <f ca="1">E5/B5 * 360 /($I$2-C5) * 100</f>
-        <v>2.1504288844266672</v>
+        <v>2.0607879821145718</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -895,7 +895,7 @@
       </c>
       <c r="F6">
         <f ca="1">E6/B6 * 360 /($I$2-C6) * 100</f>
-        <v>2.6927113127039437</v>
+        <v>2.5734298876470558</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -913,7 +913,7 @@
       </c>
       <c r="F9">
         <f ca="1">E9/B9 * 360 /($I$2-C9) * 100</f>
-        <v>1.2605262578636678</v>
+        <v>1.1818926729503243</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1648,7 +1648,7 @@
   <dimension ref="A2:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1686,22 +1686,22 @@
         <v>54</v>
       </c>
       <c r="B4">
-        <v>11581.79</v>
+        <v>11935.57</v>
       </c>
       <c r="C4">
-        <v>19721.86</v>
+        <v>18733.11</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
       </c>
       <c r="G4">
-        <v>45886.66</v>
+        <v>42006.080000000002</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
       </c>
       <c r="J4">
-        <v>5192.05</v>
+        <v>5636.67</v>
       </c>
       <c r="L4" t="s">
         <v>54</v>
@@ -1710,18 +1710,18 @@
         <v>193</v>
       </c>
       <c r="N4">
-        <v>216</v>
+        <v>222.94</v>
       </c>
       <c r="O4">
         <f>(N4-M4)*1000</f>
-        <v>23000</v>
+        <v>29939.999999999996</v>
       </c>
       <c r="Q4">
         <v>200.39</v>
       </c>
       <c r="R4">
         <f>(N4-Q4)*500</f>
-        <v>7805.0000000000073</v>
+        <v>11275.000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -1733,14 +1733,14 @@
       </c>
       <c r="C5">
         <f>C6-C4</f>
-        <v>166942.40000000002</v>
+        <v>167931.15000000002</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
       </c>
       <c r="G5">
         <f>G6-G4</f>
-        <v>263735.55000000005</v>
+        <v>267616.13</v>
       </c>
       <c r="I5" t="s">
         <v>55</v>
@@ -1762,13 +1762,13 @@
       </c>
       <c r="B6">
         <f>B5+B4</f>
-        <v>211581.79</v>
+        <v>211935.57</v>
       </c>
       <c r="C6">
         <v>186664.26</v>
       </c>
       <c r="D6">
-        <v>4176.8599999999997</v>
+        <v>4737.93</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -1781,14 +1781,14 @@
       </c>
       <c r="J6">
         <f>J5+J4</f>
-        <v>225192.05</v>
+        <v>225636.67</v>
       </c>
       <c r="L6" t="s">
         <v>29</v>
       </c>
       <c r="M6">
         <f>M5+O4+R4</f>
-        <v>324428.45999999996</v>
+        <v>334838.45999999996</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1797,32 +1797,32 @@
       </c>
       <c r="B7" s="3">
         <f>B4/B5</f>
-        <v>5.7908950000000008E-2</v>
+        <v>5.9677849999999998E-2</v>
       </c>
       <c r="C7" s="3">
         <f>C4/C5</f>
-        <v>0.11813571627100124</v>
+        <v>0.11155232367550628</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="3">
         <f>G4/G5</f>
-        <v>0.17398739002004088</v>
+        <v>0.15696393188258123</v>
       </c>
       <c r="I7" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="3">
         <f>J4/J5</f>
-        <v>2.3600227272727273E-2</v>
+        <v>2.5621227272727275E-2</v>
       </c>
       <c r="L7" t="s">
         <v>44</v>
       </c>
       <c r="M7" s="3">
         <f>O4/M5</f>
-        <v>7.8331615600470084E-2</v>
+        <v>0.10196732917730757</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B12">
         <f>B4+G4+J4+O4+C4+R4</f>
-        <v>113187.36000000002</v>
+        <v>119526.43</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B13">
         <f>B5+C5+G5+J5+M5</f>
-        <v>1144301.4100000001</v>
+        <v>1149170.74</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B14" s="3">
         <f>B12/B13</f>
-        <v>9.8913939116792665E-2</v>
+        <v>0.1040110279870161</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1863,13 +1863,13 @@
       </c>
       <c r="B15" s="6">
         <f>B13+B12+D6</f>
-        <v>1261665.6300000004</v>
+        <v>1273435.0999999999</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="6">
         <f>B6+C6+D6+G6+J6+M6</f>
-        <v>1261665.6300000001</v>
+        <v>1273435.1000000001</v>
       </c>
     </row>
   </sheetData>
